--- a/config_4.20/act_027_jqshl_config.xlsx
+++ b/config_4.20/act_027_jqshl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>index</t>
   </si>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>sta_time|活动开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,7 +922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1201,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1221,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1241,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1261,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1281,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1301,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1321,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1341,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1361,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1381,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1401,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1421,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1441,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1461,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1481,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1507,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1521,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1541,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1561,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1590,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,14 +1654,11 @@
       <c r="G2" s="1">
         <v>1618876800</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
@@ -1687,14 +1680,11 @@
       <c r="G3" s="1">
         <v>1618876800</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -1711,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1741,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1749,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1757,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1765,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.20/act_027_jqshl_config.xlsx
+++ b/config_4.20/act_027_jqshl_config.xlsx
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
+        <v>1000540</v>
+      </c>
+      <c r="E2" s="1">
         <v>1000539</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000540</v>
       </c>
       <c r="F2" s="1">
         <v>1619452799</v>
@@ -1669,10 +1669,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
+        <v>1000540</v>
+      </c>
+      <c r="E3" s="1">
         <v>1000539</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1000540</v>
       </c>
       <c r="F3" s="1">
         <v>1619452799</v>
